--- a/biology/Botanique/Franz_Julius_Ferdinand_Meyen/Franz_Julius_Ferdinand_Meyen.xlsx
+++ b/biology/Botanique/Franz_Julius_Ferdinand_Meyen/Franz_Julius_Ferdinand_Meyen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Julius Ferdinand Meyen, né le 28 juin 1804 à Tilsit et mort le 2 septembre 1840 à Berlin, est un botaniste, zoologiste et médecin allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Meyen commence à étudier la pharmacie à Memel (aujourd'hui Klaipėda en Lituanie), il vient à Berlin en 1821 étudier la médecine et obtient son titre de docteur en 1826. Il devient alors médecin militaire et est en poste à Berlin, Cologne et Bonn.
 Il consacre ses loisirs à l'étude de la botanique, principalement à l'histologie végétale. Il publie Phytotomie en 1830, l'un des premiers ouvrages d’envergure sur l'anatomie microscopique des végétaux.
@@ -545,7 +559,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue, dans le quartie Lichtenberg de Berlin, lui est dédiée.
 </t>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anatomisch-physiologische Untersuchungen über den Inhalt der Pflanzenzellen, Berlin 1828
 Phytotomie, Berlin 1830
